--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_14_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1797456.069571893</v>
+        <v>1799217.690392509</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12445534.67060185</v>
+        <v>12445480.89855084</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283178</v>
+        <v>417425.631344892</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10190474.9627145</v>
+        <v>10190263.82872897</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>66.67731766039422</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
-        <v>116.9725659584294</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>115.3066195468971</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -746,7 +746,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>143.5869569939894</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>49.5370542884704</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -800,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.8836670385466</v>
+        <v>148.2229544043538</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
-        <v>144.4397411920694</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -901,10 +901,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>212.568965117905</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="E5" t="n">
-        <v>263.7138800015062</v>
+        <v>212.5689651179051</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.4695742187186</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1034,13 +1034,13 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>10.18456372565635</v>
       </c>
       <c r="Y6" t="n">
         <v>205.6826957773044</v>
@@ -1062,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>83.43224246993569</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1077,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888208</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>2.214688090590434</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.5491597882495</v>
+        <v>143.2809516757572</v>
       </c>
       <c r="H8" t="n">
-        <v>186.460061419442</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465102</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1195,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1226,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.3351760237737</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>92.83909691614515</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115269</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1262,13 +1262,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>132.6026661256217</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>192.0697045406877</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8092543744329</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>23.91773138700234</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>197.4147107719976</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>407.2359825886529</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1749784766142</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.74901076264473</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0311623452477</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9058642207981</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1463,10 +1463,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>134.4010792945512</v>
+        <v>134.4021710092738</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.82823269715941</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,13 +1499,13 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0489563585643</v>
       </c>
       <c r="T12" t="n">
-        <v>188.3046392154443</v>
+        <v>188.3090395918921</v>
       </c>
       <c r="U12" t="n">
-        <v>225.7478006422472</v>
+        <v>225.7478724655842</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>20.88994825141623</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>32.878558493628</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.41639999081829</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0422364341346</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4093609706217</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1845243123506</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>55.49215756129646</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>38.95525409458267</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2007,7 +2007,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>8.616048582070279</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>26.70391688093255</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,22 +2289,22 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>187.2551470558699</v>
       </c>
       <c r="X22" t="n">
-        <v>219.4517041866557</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2478,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>20.22544352992953</v>
       </c>
       <c r="G25" t="n">
-        <v>99.97427419833861</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>45.16086499484926</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2809,7 +2809,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>134.0367616438392</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3006,13 +3006,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,16 +3079,16 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3195,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>55.52079624060383</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3255,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>12.74007641194074</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,7 +3429,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>31.40247677523326</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>131.2944603446578</v>
       </c>
       <c r="U40" t="n">
-        <v>5.890337106878037</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>172.026033500079</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,13 +4027,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>26.70391688093255</v>
       </c>
     </row>
   </sheetData>
@@ -4306,46 +4306,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1054.855520006025</v>
+        <v>634.167062227511</v>
       </c>
       <c r="C2" t="n">
-        <v>1054.855520006025</v>
+        <v>367.789405660333</v>
       </c>
       <c r="D2" t="n">
-        <v>1054.855520006025</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="E2" t="n">
-        <v>788.4778634388467</v>
+        <v>300.4385797407429</v>
       </c>
       <c r="F2" t="n">
-        <v>522.1002068716687</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>403.9460998429521</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>137.5684432757741</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
         <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N2" t="n">
-        <v>704.5463761991318</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358414</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4357,25 +4357,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="X2" t="n">
-        <v>1054.855520006025</v>
+        <v>634.167062227511</v>
       </c>
       <c r="Y2" t="n">
-        <v>1054.855520006025</v>
+        <v>634.167062227511</v>
       </c>
     </row>
     <row r="3">
@@ -4385,13 +4385,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>741.6028526889978</v>
+        <v>582.3653976835424</v>
       </c>
       <c r="C3" t="n">
-        <v>567.1498234078708</v>
+        <v>407.9123684024154</v>
       </c>
       <c r="D3" t="n">
-        <v>418.2154137466196</v>
+        <v>258.9779587411641</v>
       </c>
       <c r="E3" t="n">
         <v>258.9779587411641</v>
@@ -4403,31 +4403,31 @@
         <v>121.5812722902314</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
@@ -4436,25 +4436,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>909.8181897090658</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>909.8181897090658</v>
+        <v>1004.818091431812</v>
       </c>
       <c r="U3" t="n">
-        <v>909.8181897090658</v>
+        <v>1004.818091431812</v>
       </c>
       <c r="V3" t="n">
-        <v>909.8181897090658</v>
+        <v>1004.818091431812</v>
       </c>
       <c r="W3" t="n">
-        <v>909.8181897090658</v>
+        <v>750.5807347036105</v>
       </c>
       <c r="X3" t="n">
-        <v>909.8181897090658</v>
+        <v>750.5807347036105</v>
       </c>
       <c r="Y3" t="n">
-        <v>909.8181897090658</v>
+        <v>750.5807347036105</v>
       </c>
     </row>
     <row r="4">
@@ -4464,46 +4464,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>506.5157475554171</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="C4" t="n">
-        <v>337.5795646275102</v>
+        <v>619.5416805109397</v>
       </c>
       <c r="D4" t="n">
-        <v>337.5795646275102</v>
+        <v>619.5416805109397</v>
       </c>
       <c r="E4" t="n">
-        <v>189.666471045117</v>
+        <v>471.6285869285466</v>
       </c>
       <c r="F4" t="n">
-        <v>189.666471045117</v>
+        <v>324.7386394306362</v>
       </c>
       <c r="G4" t="n">
-        <v>21.0971104001205</v>
+        <v>175.0184834666425</v>
       </c>
       <c r="H4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4527,13 +4527,13 @@
         <v>1054.855520006025</v>
       </c>
       <c r="W4" t="n">
-        <v>1054.855520006025</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="X4" t="n">
-        <v>908.9567915291869</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y4" t="n">
-        <v>688.1642123856568</v>
+        <v>788.4778634388466</v>
       </c>
     </row>
     <row r="5">
@@ -4549,7 +4549,7 @@
         <v>522.1002068716687</v>
       </c>
       <c r="D5" t="n">
-        <v>307.3840804899464</v>
+        <v>255.7225503044907</v>
       </c>
       <c r="E5" t="n">
         <v>41.00642392276842</v>
@@ -4558,28 +4558,28 @@
         <v>34.06092317356495</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I5" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
         <v>49.28269087917573</v>
       </c>
       <c r="K5" t="n">
-        <v>142.2640879052541</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030602</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991316</v>
+        <v>704.5463761991317</v>
       </c>
       <c r="O5" t="n">
         <v>888.5149683358413</v>
@@ -4609,7 +4609,7 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X5" t="n">
-        <v>788.4778634388467</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="Y5" t="n">
         <v>522.1002068716687</v>
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.0971104001205</v>
+        <v>650.2565623210693</v>
       </c>
       <c r="C6" t="n">
-        <v>21.0971104001205</v>
+        <v>475.8035330399423</v>
       </c>
       <c r="D6" t="n">
-        <v>21.0971104001205</v>
+        <v>326.869123378691</v>
       </c>
       <c r="E6" t="n">
-        <v>21.0971104001205</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J6" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957469</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>242.5255548298714</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>433.1262439263952</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>643.1802110290002</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>813.1187583557301</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7034117742821</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="W6" t="n">
-        <v>565.4660550460806</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="X6" t="n">
-        <v>357.6145548405477</v>
+        <v>1026.232198106091</v>
       </c>
       <c r="Y6" t="n">
-        <v>149.8542560755938</v>
+        <v>818.4718993411373</v>
       </c>
     </row>
     <row r="7">
@@ -4701,46 +4701,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>650.177417354891</v>
+        <v>424.4249251342376</v>
       </c>
       <c r="C7" t="n">
-        <v>481.2412344269841</v>
+        <v>255.4887422063307</v>
       </c>
       <c r="D7" t="n">
-        <v>331.1245950146483</v>
+        <v>105.3721027939949</v>
       </c>
       <c r="E7" t="n">
-        <v>183.2115014322552</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I7" t="n">
-        <v>36.32155393434482</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J7" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375338</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4767,10 +4767,10 @@
         <v>1054.855520006025</v>
       </c>
       <c r="X7" t="n">
-        <v>1052.618461328661</v>
+        <v>826.8659691080074</v>
       </c>
       <c r="Y7" t="n">
-        <v>831.8258821851307</v>
+        <v>606.0733899644773</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1876.731217729076</v>
+        <v>1719.977393518933</v>
       </c>
       <c r="C8" t="n">
-        <v>1876.731217729076</v>
+        <v>1351.014876578522</v>
       </c>
       <c r="D8" t="n">
-        <v>1518.465519122326</v>
+        <v>992.7491779717714</v>
       </c>
       <c r="E8" t="n">
-        <v>1132.677266524081</v>
+        <v>606.9609253735271</v>
       </c>
       <c r="F8" t="n">
-        <v>721.691361734474</v>
+        <v>195.9750205839195</v>
       </c>
       <c r="G8" t="n">
-        <v>305.9851397261411</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428664</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685522</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467152</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.175743760738</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045858</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1219.647962995217</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.591685209571</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940579</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550179</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661142</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342761</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342761</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342761</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342761</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.49987299919</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W8" t="n">
-        <v>1876.731217729076</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="X8" t="n">
-        <v>1876.731217729076</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="Y8" t="n">
-        <v>1876.731217729076</v>
+        <v>2106.577233583055</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041138965631</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8510846154361</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9166749541848</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792199487294</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446619756144</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4424639718025</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.66559839993874</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685522</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637174</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.0857543148152</v>
+        <v>614.5430248380235</v>
       </c>
       <c r="L9" t="n">
-        <v>592.6217377482944</v>
+        <v>909.2465818694952</v>
       </c>
       <c r="M9" t="n">
-        <v>1208.393778287018</v>
+        <v>1272.508600828715</v>
       </c>
       <c r="N9" t="n">
-        <v>1842.133061471851</v>
+        <v>1659.793729425661</v>
       </c>
       <c r="O9" t="n">
-        <v>2174.019871459238</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P9" t="n">
-        <v>2421.055229888861</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q9" t="n">
-        <v>2536.272628442604</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342761</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S9" t="n">
-        <v>2426.620673347184</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2232.610870780833</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520714847062</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
-        <v>1769.368606615319</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131249887118</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.279749681585</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
-        <v>1099.519450916631</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>665.0671186274013</v>
+        <v>517.189556406156</v>
       </c>
       <c r="C10" t="n">
-        <v>496.1309356994944</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0142962871587</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1012027047656</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.21125520685522</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
-        <v>51.21125520685522</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685522</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685522</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.6346830838005</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676549</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.385004336889</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899903993</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101607</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931084</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1581.490387616492</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.769145477354</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.769145477354</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.769145477354</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.769145477354</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1611.609820844019</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1356.925332638132</v>
+        <v>1437.037321314904</v>
       </c>
       <c r="W10" t="n">
-        <v>1067.508162601171</v>
+        <v>1147.620151277943</v>
       </c>
       <c r="X10" t="n">
-        <v>1067.508162601171</v>
+        <v>919.6306003799259</v>
       </c>
       <c r="Y10" t="n">
-        <v>846.7155834576411</v>
+        <v>698.8380212363958</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2315.152497609994</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1946.189980669582</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1587.924282062831</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1202.136029464587</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>791.1501246749797</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.800647312704</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.76531551814415</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.21173263692071</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>377.8919112275262</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.2947399039338</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1477.735160302617</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2205.327574907692</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2949.30700383436</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3638.490420549548</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4192.191521035131</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4559.825241455004</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4688.265775907207</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4603.6708155409</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4402.629237414387</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4149.188970524692</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3818.126083181121</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3465.357427911007</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3091.891669649927</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2701.752337674116</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>943.3991132778466</v>
+        <v>943.3595186577123</v>
       </c>
       <c r="C12" t="n">
-        <v>768.9460839967196</v>
+        <v>768.9064893765853</v>
       </c>
       <c r="D12" t="n">
-        <v>620.0116743354683</v>
+        <v>619.9720797153341</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7346247098786</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2000667367636</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4402980405274</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.76531551814415</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.76531551814415</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.3098463766231</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452613</v>
+        <v>577.0600934411151</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>672.0847274025692</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>1269.18936557328</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1896.506231691814</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.506231691814</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.92299625338</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.046693765828</v>
       </c>
       <c r="R12" t="n">
-        <v>2553.061288060775</v>
+        <v>2553.046693765828</v>
       </c>
       <c r="S12" t="n">
-        <v>2434.850501963388</v>
+        <v>2434.815424716773</v>
       </c>
       <c r="T12" t="n">
-        <v>2244.643795685161</v>
+        <v>2244.604273613852</v>
       </c>
       <c r="U12" t="n">
-        <v>2016.615714228345</v>
+        <v>2016.576119608211</v>
       </c>
       <c r="V12" t="n">
-        <v>1781.463605996603</v>
+        <v>1781.424011376469</v>
       </c>
       <c r="W12" t="n">
-        <v>1527.226249268401</v>
+        <v>1527.186654648267</v>
       </c>
       <c r="X12" t="n">
-        <v>1319.374749062868</v>
+        <v>1319.335154442734</v>
       </c>
       <c r="Y12" t="n">
-        <v>1111.614450297915</v>
+        <v>1111.57485567778</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>740.8318440837691</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>571.8956611558622</v>
       </c>
       <c r="D13" t="n">
-        <v>323.8164599824514</v>
+        <v>421.7790217435264</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000583</v>
+        <v>273.8659281611333</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000583</v>
+        <v>126.9759806632229</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.76531551814415</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.76531551814415</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.76531551814415</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>173.9372723687394</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.521262039844</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>825.7851432062841</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1247.652809956959</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1664.924022934754</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2034.325229908157</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2326.891096275504</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.013457116473</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2378.926184398475</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2196.055238505409</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1976.449823383569</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1687.374546300387</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1432.6900580945</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1143.272888057539</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1143.272888057539</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>922.4803089140088</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5290,28 +5290,28 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>867.8220324314351</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>1465.200520057987</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>741.843151638089</v>
+        <v>985.7836617409695</v>
       </c>
       <c r="C16" t="n">
-        <v>572.9069687101821</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>422.7903292978464</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>274.8772357154533</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>274.8772357154533</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>274.8772357154533</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>133.1654045576514</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X16" t="n">
-        <v>1144.284195611859</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y16" t="n">
-        <v>923.4916164683287</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>724.7519863413023</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C19" t="n">
-        <v>555.8158034133954</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2188.359466111739</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1899.284239455937</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1644.59975125005</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1355.182581213089</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1127.193030315072</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>906.400451171542</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="20">
@@ -5743,40 +5743,40 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,10 +5825,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803938</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263526</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356194</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038374</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797776</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487571</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510512</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U22" t="n">
-        <v>1977.461080510512</v>
+        <v>2090.842153176861</v>
       </c>
       <c r="V22" t="n">
-        <v>1722.776592304625</v>
+        <v>1836.157664970974</v>
       </c>
       <c r="W22" t="n">
-        <v>1722.776592304625</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5986,22 +5986,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998291</v>
+        <v>653.1541313646961</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998291</v>
+        <v>505.241037782303</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="26">
@@ -6217,37 +6217,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1144.284195611859</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1144.284195611859</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6445,49 +6445,49 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,16 +6536,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6557,7 +6557,7 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.345997432835</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>923.4098145049279</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>773.2931750925922</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>625.380081510199</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>478.4901340122886</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>311.2940347271686</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510509</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304622</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1722.776592304622</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1494.787041406604</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1273.994462263074</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6694,16 +6694,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,25 +6712,25 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>721.7774158311364</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C34" t="n">
-        <v>552.8412329032295</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>296.7882229101285</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>149.8982754122182</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y34" t="n">
-        <v>903.4258806613761</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="35">
@@ -6931,16 +6931,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,19 +6949,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492578</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,16 +7010,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>803.8641191832228</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C37" t="n">
-        <v>634.9279362553159</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797776</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235168</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.50678425811</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602307</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1723.711884091971</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1434.29471405501</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1206.305163156993</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y37" t="n">
-        <v>985.5125840134625</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="38">
@@ -7156,67 +7156,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7247,16 +7247,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C40" t="n">
-        <v>847.644273983533</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711973</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888042</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487568</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="U40" t="n">
-        <v>2191.112710026075</v>
+        <v>2131.487582220359</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820188</v>
+        <v>1876.803094014472</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1587.385923977512</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7429,7 +7429,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263526</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356194</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232836</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408905</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,16 +7660,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8078,7 +8078,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8157,7 +8157,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.3429583777515</v>
+        <v>65.34295837775146</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8315,7 +8315,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127245</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878358</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>255.2581536004284</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.1463441538045</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2.569396338501861</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>127.7255247667961</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>132.6464950555913</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>140.3028503125646</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.29336059121907</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>111.7546635373314</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>42.31058222398285</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23895,7 +23895,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>208.789401745218</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
     </row>
     <row r="20">
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,22 +24177,22 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>99.26785128072115</v>
       </c>
       <c r="X22" t="n">
-        <v>6.257951202381435</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>125.1956044930017</v>
       </c>
       <c r="G25" t="n">
-        <v>65.54986409393024</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>134.671115187088</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>6.257951202384646</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24894,13 +24894,13 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>110.003342051665</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>205.844576940154</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,7 +25371,7 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>220.7351665485947</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>86.11098998263051</v>
       </c>
       <c r="U40" t="n">
-        <v>280.2941372823661</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>899470.2885286351</v>
+        <v>899477.8166157764</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>876221.8101769291</v>
+        <v>875976.4839468028</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>876221.8101769291</v>
+        <v>876221.8101769292</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>876221.8101769292</v>
+        <v>876221.8101769291</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>876221.8101769292</v>
+        <v>876221.8101769291</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>876221.8101769292</v>
+        <v>876221.8101769291</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583913</v>
+        <v>554203.1946583911</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583912</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583915</v>
+        <v>554203.1946583914</v>
       </c>
       <c r="E2" t="n">
+        <v>544669.9127392793</v>
+      </c>
+      <c r="F2" t="n">
+        <v>544823.9547907539</v>
+      </c>
+      <c r="G2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="H2" t="n">
         <v>544823.9547907538</v>
       </c>
-      <c r="F2" t="n">
-        <v>544823.954790754</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="I2" t="n">
         <v>544823.9547907539</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.9547907544</v>
-      </c>
-      <c r="I2" t="n">
-        <v>544823.9547907538</v>
       </c>
       <c r="J2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.9547907544</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="M2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907542</v>
+        <v>544823.9547907539</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907541</v>
       </c>
     </row>
     <row r="3">
@@ -26365,43 +26365,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580735</v>
+        <v>391128.3638059435</v>
       </c>
       <c r="E3" t="n">
-        <v>507909.2320606986</v>
+        <v>506886.0326267386</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>585.0966390444927</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911409</v>
+        <v>68999.15441911407</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101623</v>
+        <v>95382.64613756977</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954705</v>
+        <v>132447.3436061368</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>157.2049554764209</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>248543.2666865467</v>
+        <v>248543.2666865468</v>
       </c>
       <c r="C4" t="n">
-        <v>248543.2666865467</v>
+        <v>248543.2666865468</v>
       </c>
       <c r="D4" t="n">
-        <v>136854.4547662854</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="E4" t="n">
+        <v>9336.866604843566</v>
+      </c>
+      <c r="F4" t="n">
         <v>9337.20035675659</v>
       </c>
-      <c r="F4" t="n">
-        <v>9337.200356756592</v>
-      </c>
       <c r="G4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="J4" t="n">
         <v>9337.20035675659</v>
@@ -26450,7 +26450,7 @@
         <v>9337.20035675659</v>
       </c>
       <c r="M4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="N4" t="n">
         <v>9337.20035675659</v>
@@ -26469,16 +26469,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567854</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101072.4410767596</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-437475.8558236148</v>
+        <v>-437475.8558236149</v>
       </c>
       <c r="C6" t="n">
-        <v>242612.1247675782</v>
+        <v>242612.1247675783</v>
       </c>
       <c r="D6" t="n">
-        <v>-66234.13534164592</v>
+        <v>-66589.21527949935</v>
       </c>
       <c r="E6" t="n">
-        <v>-73892.38670496544</v>
+        <v>-72660.7360206147</v>
       </c>
       <c r="F6" t="n">
-        <v>434016.8453557334</v>
+        <v>433744.39004561</v>
       </c>
       <c r="G6" t="n">
-        <v>434016.8453557332</v>
+        <v>434329.4866846543</v>
       </c>
       <c r="H6" t="n">
-        <v>434016.8453557337</v>
+        <v>434329.4866846543</v>
       </c>
       <c r="I6" t="n">
-        <v>434016.8453557331</v>
+        <v>434329.4866846546</v>
       </c>
       <c r="J6" t="n">
-        <v>365017.6909366191</v>
+        <v>365330.3322655404</v>
       </c>
       <c r="K6" t="n">
-        <v>434016.8453557334</v>
+        <v>434329.4866846544</v>
       </c>
       <c r="L6" t="n">
-        <v>338746.6075647175</v>
+        <v>338946.8405470846</v>
       </c>
       <c r="M6" t="n">
-        <v>301298.8696602631</v>
+        <v>301882.1430785177</v>
       </c>
       <c r="N6" t="n">
-        <v>434016.8453557336</v>
+        <v>434172.281729178</v>
       </c>
       <c r="O6" t="n">
-        <v>434016.8453557336</v>
+        <v>434329.4866846545</v>
       </c>
       <c r="P6" t="n">
-        <v>434016.8453557331</v>
+        <v>434329.4866846547</v>
       </c>
     </row>
   </sheetData>
@@ -26737,16 +26737,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627786</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.467948760094</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856903</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.066443976802</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26816,16 +26816,16 @@
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26959,28 +26959,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933002</v>
+        <v>320.009878348061</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788954</v>
+        <v>433.4030566425548</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.5075515815797189</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,19 +27011,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841841</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139583</v>
+        <v>531.4816118767628</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.6418441228464844</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,19 +27035,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841841</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139583</v>
+        <v>531.4816118767628</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.6418441228464844</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27257,19 +27257,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841841</v>
+        <v>376.8709520985328</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139583</v>
+        <v>531.4816118767628</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.6418441228464844</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27381,25 +27381,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>288.0057239602887</v>
       </c>
       <c r="E2" t="n">
-        <v>118.2164900707556</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>143.1621657402052</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
-        <v>295.8616086872806</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776178</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
@@ -27444,7 +27444,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27466,7 +27466,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27478,7 +27478,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>3.562978418209383</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>145.3039332964064</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
@@ -27520,7 +27520,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,19 +27548,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>18.66071263419281</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
-        <v>81.2699141969677</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27621,10 +27621,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>142.1140765027779</v>
+        <v>90.96916161917682</v>
       </c>
       <c r="E5" t="n">
-        <v>118.2164900707556</v>
+        <v>169.3614049543567</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
@@ -27681,7 +27681,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769628</v>
+        <v>106.0172206769629</v>
       </c>
       <c r="Y5" t="n">
         <v>122.5240586545474</v>
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.06360943114878</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
@@ -27754,13 +27754,13 @@
         <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>195.5884214778211</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -27782,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>63.00172017663348</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27797,7 +27797,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27839,7 +27839,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>223.4949672984467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>268.2667510971968</v>
       </c>
       <c r="H8" t="n">
-        <v>114.5734128008586</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,19 +27903,19 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.485417134841</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646899</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0453666896857</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27982,7 +27982,7 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>1.776449164552304</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3072536117062</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2573199590396</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430997</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640957</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6738502503846</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7514885103388</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>262.3094583833021</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>54.72293255183041</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>-2.211213280550236e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -28985,7 +28985,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -30036,7 +30036,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>-4.796661474883757e-13</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -30173,7 +30173,7 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -31041,31 +31041,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31077,7 +31077,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31126,16 +31126,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31144,25 +31144,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31202,16 +31202,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31223,25 +31223,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,31 +31278,31 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H5" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I5" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J5" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K5" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L5" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M5" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N5" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O5" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P5" t="n">
         <v>354.9824263269073</v>
@@ -31314,7 +31314,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S5" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T5" t="n">
         <v>10.8061339609081</v>
@@ -31363,16 +31363,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I6" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J6" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K6" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L6" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M6" t="n">
         <v>334.6599825043656</v>
@@ -31381,25 +31381,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O6" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P6" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q6" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R6" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S6" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T6" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U6" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31439,16 +31439,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H7" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I7" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J7" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K7" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L7" t="n">
         <v>164.6271425440336</v>
@@ -31460,25 +31460,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O7" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P7" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q7" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R7" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S7" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T7" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U7" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885539</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546654</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7098053157549</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972518</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763168</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354903</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359909</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525045</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307864</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690982996</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542111</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.785676886474</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140431</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944146</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508431</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00834113943692</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035131</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.14683309026239</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079417</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502153</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.065474157126</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617143</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.336058015219</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519061</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947571</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.362984746369</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204783</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366382</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133899</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321277065419027</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752551</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>14.96985254839997</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415856</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954054</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772509</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>250.3240987490112</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023113</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462338</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046243</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708721</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>140.9890713939796</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.7064322130738</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658763</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.194100917942718</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09183958618650291</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.497358587980274</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.29982363915299</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>211.9369169631097</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.5814384565912</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.2846274857962</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.5244153726977</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.2880661616919</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>980.9074362497909</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.243076790562</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.5270366497989</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.6528822177552</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.3234514022162</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.2710588236006</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.06468721888366</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4397886870384218</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.941346153936806</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.40721153933705</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.892708341898</v>
       </c>
       <c r="K12" t="n">
-        <v>248.0319961154042</v>
+        <v>474.962900655664</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>234.5388585288177</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.2700320742512</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>764.9951122030643</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.6681089916697</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.4602564218281</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.63421474527353</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.85568910292949</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935096153905794</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.465925809239514</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.92432219487496</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.15711433603921</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.3409547132336</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.4957440189179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.6159153118456</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.545079351972</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.353901335716</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.547404382327</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.2425178738407</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.4876602627742</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.8769913863512</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.97436160283769</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.53622845765974</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345050441403373</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32080,37 +32080,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>431.9220107744075</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>390.1398273256871</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>245.5483596572286</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34798,7 +34798,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877689</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34877,7 +34877,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496884</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K5" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L5" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M5" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N5" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O5" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P5" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q5" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.4384048176305</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35035,7 +35035,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877689</v>
+        <v>28.61687799649638</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q7" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705655</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313363</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.576302165503</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087182</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559135</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078090997</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.53617334303</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797616</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234184</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127497</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.4616124758563</v>
+        <v>379.9148430313206</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772518</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>621.9919601401243</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>640.1406900856903</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074617</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.5306650804269</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.3812106603474</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.53548676783517</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.6802301787326</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513681</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093273</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641519</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254623</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.572108918664</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357656</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228519</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.461027392703784</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.5355339299049</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.1947764408157</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>631.7580004027104</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>734.9418329344192</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.4943726531999</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.1448653688752</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.2940408945294</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.3471923433057</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.737913588084</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.0550816752313</v>
       </c>
       <c r="K12" t="n">
-        <v>110.1905571410452</v>
+        <v>337.121461681305</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>95.98447874894356</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.1359981522328</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.653400119731</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.6937015773394</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.4784823358066</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>80.98177459656083</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.2262521930351</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.2059405721617</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.1289563138126</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.4860737149446</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.1325322963667</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.5210771387342</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.3256170110798</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>293.3676309945333</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36281,7 +36281,7 @@
         <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409638</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
         <v>394.3420143191315</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>256.1654199113569</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191345</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
